--- a/EXCEL/ADACTIN CHECKERS.xlsx
+++ b/EXCEL/ADACTIN CHECKERS.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SELENIUM\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AB45EAD-3FC7-414C-9380-F8819C66E0A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B953B458-EFCC-49D8-899B-8AD45A02AF5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{C13CB821-6F36-4A54-8E9C-5661594701BE}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="24270" windowHeight="13800" xr2:uid="{C13CB821-6F36-4A54-8E9C-5661594701BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -512,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC06C293-B799-40C6-BA2C-33415DAD9212}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D11" activeCellId="1" sqref="C11 D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,6 +548,9 @@
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="D2">
+        <v>200</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -563,6 +562,9 @@
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="D3">
+        <v>200</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -574,6 +576,9 @@
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="D4">
+        <v>200</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -585,6 +590,9 @@
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D5">
+        <v>200</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -596,6 +604,9 @@
       <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="D6">
+        <v>200</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -607,6 +618,9 @@
       <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="D7">
+        <v>200</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -617,6 +631,9 @@
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="D8">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
